--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_24.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>967799.4118382352</v>
+        <v>1017634.076114287</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484441</v>
+        <v>492028.9342484443</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7220066.084680252</v>
+        <v>7232692.348217174</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>252.9971752008838</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>40.26786256962146</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -820,19 +820,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>134.0000975741644</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -871,10 +871,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>69.83488703178899</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -956,13 +956,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>411.6213736860524</v>
       </c>
       <c r="Y5" t="n">
-        <v>87.25047160923364</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>175.9688885474363</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1117,10 +1117,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>389.4221635534926</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.8504650439458</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1345,7 +1345,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>247.2478552140217</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>248.9778919109224</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.67077719907176</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1540,7 +1540,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170453</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1607,10 +1607,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>166.162536832921</v>
       </c>
       <c r="D14" t="n">
-        <v>163.5395542426792</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1774,13 +1774,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>86.7450858004031</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>372.3046183802605</v>
       </c>
       <c r="C17" t="n">
-        <v>248.565270431792</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>133.370999537607</v>
+        <v>82.62483121292124</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2090,16 +2090,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>155.5776225602631</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>101.4556968337276</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.30825486907106</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>103.8284742946035</v>
       </c>
       <c r="I25" t="n">
-        <v>82.62483121292169</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>28.85560178398649</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2725,13 +2725,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>86.914062536063</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2959,7 +2959,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>13.01313443288583</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3016,7 +3016,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>34.21677751456866</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>181.1112426721139</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3247,7 +3247,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>29.10461178738959</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3661,7 +3661,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,10 +3718,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>67.84972440587313</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>108.5103196251638</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>54.53682144529142</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3907,10 +3907,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -3955,7 +3955,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>159.7269632351987</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -4138,7 +4138,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4153,7 +4153,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>131.9969996527466</v>
+        <v>108.3408915168855</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>547.9560900011804</v>
+        <v>1604.861423395235</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>1166.718950578659</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>911.1662483555438</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>477.391503513839</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304675</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304675</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304675</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="K2" t="n">
-        <v>437.0247332457074</v>
+        <v>524.3060841805643</v>
       </c>
       <c r="L2" t="n">
-        <v>857.0776321906106</v>
+        <v>524.3060841805643</v>
       </c>
       <c r="M2" t="n">
-        <v>857.0776321906106</v>
+        <v>524.3060841805643</v>
       </c>
       <c r="N2" t="n">
-        <v>857.0776321906106</v>
+        <v>524.3060841805643</v>
       </c>
       <c r="O2" t="n">
-        <v>1277.130531135514</v>
+        <v>1132.008730489125</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1739.711376797686</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>2286.210162756281</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509338</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2455.364227509338</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>2455.364227509338</v>
       </c>
       <c r="U2" t="n">
-        <v>1393.464329137293</v>
+        <v>2455.364227509338</v>
       </c>
       <c r="V2" t="n">
-        <v>1030.847379071119</v>
+        <v>2455.364227509338</v>
       </c>
       <c r="W2" t="n">
-        <v>1030.032328522557</v>
+        <v>2454.549176960775</v>
       </c>
       <c r="X2" t="n">
-        <v>610.8898651018675</v>
+        <v>2439.44711758049</v>
       </c>
       <c r="Y2" t="n">
-        <v>570.2152564456842</v>
+        <v>2031.160993880143</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397428</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064436</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>512.2855472264862</v>
+        <v>526.7806337295219</v>
       </c>
       <c r="C4" t="n">
-        <v>339.7238357097111</v>
+        <v>354.2189222127469</v>
       </c>
       <c r="D4" t="n">
-        <v>173.8458429112338</v>
+        <v>354.2189222127469</v>
       </c>
       <c r="E4" t="n">
-        <v>173.8458429112338</v>
+        <v>184.4609184634841</v>
       </c>
       <c r="F4" t="n">
-        <v>173.8458429112338</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>135.6869697148766</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>410.4454242860122</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>786.445413974657</v>
       </c>
       <c r="M4" t="n">
-        <v>453.9965675465116</v>
+        <v>1245.92928115557</v>
       </c>
       <c r="N4" t="n">
-        <v>874.0494664914149</v>
+        <v>1688.188084313214</v>
       </c>
       <c r="O4" t="n">
-        <v>1293.718715717196</v>
+        <v>2107.857333538996</v>
       </c>
       <c r="P4" t="n">
-        <v>1641.225609687538</v>
+        <v>2455.364227509338</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509338</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214709</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2274.705037512706</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>2028.825591091161</v>
       </c>
       <c r="U4" t="n">
-        <v>1221.522325025769</v>
+        <v>1750.392590344266</v>
       </c>
       <c r="V4" t="n">
-        <v>1221.522325025769</v>
+        <v>1463.437082214697</v>
       </c>
       <c r="W4" t="n">
-        <v>949.4959206120609</v>
+        <v>1191.410677800988</v>
       </c>
       <c r="X4" t="n">
-        <v>704.1041659454734</v>
+        <v>946.0189231344009</v>
       </c>
       <c r="Y4" t="n">
-        <v>704.1041659454734</v>
+        <v>718.5992524485091</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>949.0361114536327</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C5" t="n">
-        <v>914.93404267746</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D5" t="n">
-        <v>486.3523684147282</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>857.0776321906106</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1277.130531135514</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>1277.130531135514</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>1277.130531135514</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>1277.130531135514</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1075.344177331261</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>1074.529126782698</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X5" t="n">
-        <v>1059.427067402413</v>
+        <v>1007.519726626896</v>
       </c>
       <c r="Y5" t="n">
-        <v>971.2952778981364</v>
+        <v>599.2336029265493</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>682.0221647221273</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>682.0221647221273</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>516.14417192365</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>395.2818083374338</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>815.3347072823371</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1235.003956508118</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1131.794921203953</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>859.7685167902448</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>859.7685167902448</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>859.7685167902448</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>560.3451554119299</v>
+        <v>936.2280884669766</v>
       </c>
       <c r="C8" t="n">
-        <v>122.2026825953532</v>
+        <v>542.872367705873</v>
       </c>
       <c r="D8" t="n">
-        <v>90.33330181020176</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>60.59896100890099</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851279</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851279</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851279</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851279</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>304.2846042752957</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>759.3373055743914</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>1214.390006873487</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>1214.390006873487</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>1214.390006873487</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>1214.390006873487</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873487</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172583</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925639</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925639</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1628.646808234785</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1369.424505551802</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1006.807555485628</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W8" t="n">
-        <v>1005.992504937066</v>
+        <v>1785.915842032516</v>
       </c>
       <c r="X8" t="n">
-        <v>586.8500415163762</v>
+        <v>1366.773378611827</v>
       </c>
       <c r="Y8" t="n">
-        <v>582.6043218564337</v>
+        <v>958.4872549114804</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498056</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330011</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599548</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230031</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851279</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897038</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842783</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842783</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>842.4466348842783</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>842.4466348842783</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543886</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.733360750348</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295687</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>379.3569822952339</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>379.3569822952339</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4789894967566</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4789894967566</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>36.77193545851279</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>36.77193545851279</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851279</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851279</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232026</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>398.1100751943383</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>816.3199569622992</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1271.372658261395</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1491.089878955298</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1491.089878955298</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925639</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925639</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925639</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1679.355404223636</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1433.475957802091</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1183.7306495051</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>896.77514137553</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>624.7487369618215</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>379.3569822952339</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>379.3569822952339</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062125</v>
+        <v>2336.308741984731</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419993</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578288</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874956</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G11" t="n">
-        <v>386.282920610759</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I11" t="n">
         <v>96.73597668111519</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111519</v>
+        <v>403.2461837293691</v>
       </c>
       <c r="K11" t="n">
-        <v>931.0862686392932</v>
+        <v>1237.596475687547</v>
       </c>
       <c r="L11" t="n">
-        <v>2006.146234892153</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="M11" t="n">
-        <v>2481.810506693463</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.810506693463</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O11" t="n">
-        <v>3461.990173263769</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P11" t="n">
-        <v>4290.300048097165</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4803.798049006192</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T11" t="n">
-        <v>4803.798049006192</v>
+        <v>4616.731606928798</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.575746323208</v>
+        <v>4357.509304245815</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257035</v>
+        <v>3994.892354179641</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3590.036899590674</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3170.894436169985</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547033</v>
+        <v>2762.608312469638</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5121,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580465</v>
+        <v>806.2298140987272</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412714</v>
+        <v>633.6681025819521</v>
       </c>
       <c r="D13" t="n">
-        <v>608.7923094427941</v>
+        <v>467.7901097834748</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935314</v>
+        <v>298.0321060342121</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552876</v>
+        <v>121.3250519959683</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H13" t="n">
         <v>96.73597668111519</v>
@@ -5224,25 +5224,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>998.0484328177145</v>
       </c>
     </row>
     <row r="14">
@@ -5255,49 +5255,49 @@
         <v>2252.656868168568</v>
       </c>
       <c r="C14" t="n">
-        <v>1814.514395351991</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F14" t="n">
-        <v>787.680751987495</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I14" t="n">
         <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
-        <v>96.73597668111519</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>931.0862686392932</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2006.146234892153</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2481.810506693463</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693463</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263769</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097165</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
@@ -5355,16 +5355,16 @@
         <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="N15" t="n">
         <v>1102.064021433509</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>998.048432817714</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C16" t="n">
-        <v>825.4867213009389</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D16" t="n">
-        <v>659.6087285024616</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E16" t="n">
-        <v>489.850724753199</v>
+        <v>439.0343056935314</v>
       </c>
       <c r="F16" t="n">
-        <v>402.229425964913</v>
+        <v>262.3272516552876</v>
       </c>
       <c r="G16" t="n">
-        <v>236.6381509907407</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H16" t="n">
         <v>96.73597668111519</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583914</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
         <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460366</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713471</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583902</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170193</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503606</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.048432817714</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2336.308741984732</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>787.680751987495</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.1527660539752</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I17" t="n">
         <v>96.73597668111519</v>
@@ -5522,16 +5522,16 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>3028.309292652058</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="N17" t="n">
-        <v>3028.309292652058</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O17" t="n">
-        <v>4008.488959222364</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P17" t="n">
-        <v>4836.798834055759</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q17" t="n">
         <v>4836.798834055759</v>
@@ -5540,25 +5540,25 @@
         <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4616.731606928798</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U17" t="n">
-        <v>4357.509304245815</v>
+        <v>4493.924657556613</v>
       </c>
       <c r="V17" t="n">
-        <v>3994.892354179641</v>
+        <v>4131.307707490439</v>
       </c>
       <c r="W17" t="n">
-        <v>3590.036899590675</v>
+        <v>3726.452252901473</v>
       </c>
       <c r="X17" t="n">
-        <v>3170.894436169986</v>
+        <v>3307.309789480783</v>
       </c>
       <c r="Y17" t="n">
-        <v>2762.608312469639</v>
+        <v>2899.023665780437</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>998.0484328177142</v>
+        <v>1030.691439225644</v>
       </c>
       <c r="C19" t="n">
-        <v>998.0484328177142</v>
+        <v>858.1297277088685</v>
       </c>
       <c r="D19" t="n">
-        <v>832.1704400192369</v>
+        <v>692.2517349103912</v>
       </c>
       <c r="E19" t="n">
-        <v>662.4124362699743</v>
+        <v>522.4937311611285</v>
       </c>
       <c r="F19" t="n">
-        <v>485.7053822317304</v>
+        <v>345.7866771228847</v>
       </c>
       <c r="G19" t="n">
-        <v>320.114107257558</v>
+        <v>180.1954021487124</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I19" t="n">
         <v>96.73597668111519</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2713.395586583914</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460367</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.841770713472</v>
+        <v>2254.303395840388</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.886262583902</v>
+        <v>1967.347887710818</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.859858170194</v>
+        <v>1695.32148329711</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.468103503606</v>
+        <v>1449.929728630523</v>
       </c>
       <c r="Y19" t="n">
-        <v>998.0484328177145</v>
+        <v>1222.510057944631</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168568</v>
+        <v>2336.308741984731</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.514395351991</v>
+        <v>1898.166269168154</v>
       </c>
       <c r="D20" t="n">
-        <v>1378.604610526435</v>
+        <v>1462.256484342599</v>
       </c>
       <c r="E20" t="n">
-        <v>944.8298656847305</v>
+        <v>1028.481739500894</v>
       </c>
       <c r="F20" t="n">
-        <v>787.6807519874951</v>
+        <v>600.6143099101014</v>
       </c>
       <c r="G20" t="n">
-        <v>386.282920610759</v>
+        <v>199.2164785333653</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I20" t="n">
         <v>96.73597668111519</v>
@@ -5756,46 +5756,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2523.388791302762</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>2523.388791302762</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.836108510713</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344109</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302703</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239596</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112635</v>
+        <v>4616.731606928798</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429652</v>
+        <v>4357.509304245815</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363478</v>
+        <v>3994.892354179641</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774512</v>
+        <v>3590.036899590675</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353822</v>
+        <v>3170.894436169986</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653475</v>
+        <v>2762.608312469639</v>
       </c>
     </row>
     <row r="21">
@@ -5935,25 +5935,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2554.154217881911</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T22" t="n">
-        <v>2308.274771460366</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.841770713472</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V22" t="n">
-        <v>1742.886262583902</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W22" t="n">
-        <v>1470.859858170194</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X22" t="n">
-        <v>1225.468103503606</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y22" t="n">
-        <v>998.0484328177142</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1036.216302815309</v>
+        <v>1057.634124109937</v>
       </c>
       <c r="C25" t="n">
-        <v>863.6545912985335</v>
+        <v>885.0724125931615</v>
       </c>
       <c r="D25" t="n">
-        <v>697.7765985000563</v>
+        <v>719.1944197946842</v>
       </c>
       <c r="E25" t="n">
-        <v>528.0185947507935</v>
+        <v>549.4364160454215</v>
       </c>
       <c r="F25" t="n">
-        <v>351.3115407125496</v>
+        <v>372.7293620071778</v>
       </c>
       <c r="G25" t="n">
-        <v>185.7202657383773</v>
+        <v>207.1380870330054</v>
       </c>
       <c r="H25" t="n">
-        <v>185.7202657383773</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U25" t="n">
-        <v>2259.828259430053</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V25" t="n">
-        <v>1972.872751300484</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W25" t="n">
-        <v>1700.846346886775</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X25" t="n">
-        <v>1455.454592220188</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y25" t="n">
-        <v>1228.034921534296</v>
+        <v>1249.452742828924</v>
       </c>
     </row>
     <row r="26">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>790.336856393764</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>617.775144876989</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,7 +6409,7 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T28" t="n">
         <v>2292.381813755403</v>
@@ -6418,16 +6418,16 @@
         <v>2013.948813008509</v>
       </c>
       <c r="V28" t="n">
-        <v>1926.156830648849</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W28" t="n">
-        <v>1654.13042623514</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X28" t="n">
-        <v>1408.738671568553</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y28" t="n">
-        <v>1181.319000882661</v>
+        <v>982.1554751127512</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1017.756527079655</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C31" t="n">
-        <v>845.1948155628803</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D31" t="n">
-        <v>679.316822764403</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E31" t="n">
-        <v>509.5588190151403</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F31" t="n">
         <v>496.4142387799021</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878939</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798643</v>
+        <v>1230.992967093272</v>
       </c>
       <c r="Y31" t="n">
-        <v>1209.575145798643</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928211</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1275.599700821087</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
         <v>2090.757574835212</v>
@@ -6923,10 +6923,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6962,25 +6962,25 @@
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309359</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831959</v>
       </c>
       <c r="F37" t="n">
         <v>267.852115244952</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130894</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.801834709349</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832885</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>982.155475112751</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7181,7 +7181,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423627</v>
@@ -7217,7 +7217,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1008.757289365886</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7363,19 +7363,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008509</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1945.413737851061</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W40" t="n">
-        <v>1673.387333437352</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1427.995578770765</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1200.575908084873</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7415,10 +7415,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423627</v>
@@ -7448,13 +7448,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>915.9519976190926</v>
+        <v>927.0677766831642</v>
       </c>
       <c r="C43" t="n">
-        <v>743.3902861023175</v>
+        <v>754.5060651663889</v>
       </c>
       <c r="D43" t="n">
-        <v>577.5122933038401</v>
+        <v>588.6280723679116</v>
       </c>
       <c r="E43" t="n">
-        <v>407.7542895545774</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F43" t="n">
-        <v>407.7542895545774</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G43" t="n">
         <v>242.1630145804051</v>
@@ -7594,25 +7594,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176947</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2292.381813755404</v>
       </c>
       <c r="U43" t="n">
         <v>2013.948813008509</v>
       </c>
       <c r="V43" t="n">
-        <v>1852.608446104267</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W43" t="n">
-        <v>1580.582041690559</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X43" t="n">
-        <v>1335.190287023971</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y43" t="n">
-        <v>1107.77061633808</v>
+        <v>982.1554751127514</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G44" t="n">
         <v>391.8077842004233</v>
@@ -7646,28 +7646,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>475.2748675296854</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
         <v>5113.04201353898</v>
@@ -7685,13 +7685,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1181.319000882661</v>
+        <v>926.781058858859</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365886</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7831,25 +7831,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T46" t="n">
-        <v>2404.930957497405</v>
+        <v>2428.826016220498</v>
       </c>
       <c r="U46" t="n">
-        <v>2404.930957497405</v>
+        <v>2150.393015473604</v>
       </c>
       <c r="V46" t="n">
-        <v>2117.975449367836</v>
+        <v>1863.437507344034</v>
       </c>
       <c r="W46" t="n">
-        <v>1845.949044954128</v>
+        <v>1591.411102930326</v>
       </c>
       <c r="X46" t="n">
-        <v>1600.55729028754</v>
+        <v>1346.019348263738</v>
       </c>
       <c r="Y46" t="n">
-        <v>1373.137619601648</v>
+        <v>1118.599677577846</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>479.9987875054318</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773344</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,13 +8058,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773344</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47.47818213854816</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,19 +8134,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>379.7979693824695</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>56.52305090189816</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,19 +8377,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>296.9562613211783</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>270.2148169866495</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314098</v>
+        <v>316.389926674475</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314098</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314098</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314098</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662708</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314095</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8617,19 +8617,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314098</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>221.9365865594978</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>309.6062697457111</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8696,7 +8696,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>480.4689614154649</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>480.4689614154649</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8945,10 +8945,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>421.9740460140711</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>989.1559309009456</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>592.8367376838255</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9404,16 +9404,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>777.2195123312636</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11063,13 +11063,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>92.22506899525706</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>376.7818457160665</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>184.7831561774885</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.1445778789296</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>267.5985112554899</v>
       </c>
       <c r="D14" t="n">
-        <v>268.0111327346207</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>88.19489769745823</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>49.7319563997982</v>
       </c>
       <c r="C17" t="n">
-        <v>185.1957776566189</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>5.132153028922232</v>
+        <v>55.87832135360799</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23978,16 +23978,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>268.0111327346212</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>184.7831561774883</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>34.67467827192569</v>
       </c>
       <c r="I25" t="n">
-        <v>5.148518520149707</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>135.363611086506</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>197.1718905122108</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>161.9268490649755</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>190.9286964644641</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>8.789189859683365</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,10 +25606,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>216.2362286424007</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>160.7958207444075</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>135.3636110865058</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,10 +25795,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>124.3589898130752</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,10 +26074,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>111.4236523045827</v>
+        <v>135.0797604404438</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>628833.7110646722</v>
+        <v>632721.4171253472</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>628833.7110646722</v>
+        <v>633822.3118877391</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>629558.8329774191</v>
+        <v>633822.3118877391</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>607141.886706387</v>
+        <v>607141.8867063869</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>607141.8867063872</v>
+        <v>607141.8867063869</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>632763.9681173753</v>
+        <v>632763.9681173752</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>632763.9681173754</v>
+        <v>632763.9681173753</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>632763.9681173754</v>
+        <v>632763.9681173753</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>632763.9681173754</v>
+        <v>632763.9681173753</v>
       </c>
     </row>
   </sheetData>
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>321688.391934245</v>
+        <v>321688.3919342451</v>
       </c>
       <c r="C2" t="n">
-        <v>321688.391934245</v>
+        <v>321688.3919342451</v>
       </c>
       <c r="D2" t="n">
         <v>321688.391934245</v>
       </c>
       <c r="E2" t="n">
-        <v>303314.3387830057</v>
+        <v>303314.3387830058</v>
       </c>
       <c r="F2" t="n">
-        <v>303314.3387830059</v>
+        <v>303314.3387830058</v>
       </c>
       <c r="G2" t="n">
         <v>303314.3387830058</v>
       </c>
       <c r="H2" t="n">
-        <v>303314.3387830057</v>
+        <v>303314.3387830058</v>
       </c>
       <c r="I2" t="n">
-        <v>316114.5504824112</v>
+        <v>316114.5504824113</v>
       </c>
       <c r="J2" t="n">
-        <v>316114.5504824112</v>
+        <v>316114.5504824113</v>
       </c>
       <c r="K2" t="n">
         <v>316114.5504824113</v>
       </c>
       <c r="L2" t="n">
-        <v>316114.5504824112</v>
+        <v>316114.5504824113</v>
       </c>
       <c r="M2" t="n">
-        <v>316114.5504824112</v>
+        <v>316114.5504824113</v>
       </c>
       <c r="N2" t="n">
         <v>316114.5504824113</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039029</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390664</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200282</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520273</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>18364.71563283946</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856133</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784513</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510015</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104675</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181432.3864604621</v>
+        <v>141940.3832228851</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>174066.4702932123</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
         <v>26563.08616012789</v>
@@ -26430,10 +26430,10 @@
         <v>26563.08616012789</v>
       </c>
       <c r="G4" t="n">
-        <v>26563.08616012789</v>
+        <v>26563.08616012788</v>
       </c>
       <c r="H4" t="n">
-        <v>26563.08616012789</v>
+        <v>26563.08616012788</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814192</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846971</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764753</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-61360.08332314936</v>
+        <v>-96913.38405068489</v>
       </c>
       <c r="C6" t="n">
-        <v>80831.21733656051</v>
+        <v>99378.02276656085</v>
       </c>
       <c r="D6" t="n">
-        <v>75065.84402056015</v>
+        <v>116718.5671404674</v>
       </c>
       <c r="E6" t="n">
-        <v>-20567.38340679696</v>
+        <v>41420.27658031914</v>
       </c>
       <c r="F6" t="n">
-        <v>203231.9103452305</v>
+        <v>203155.3517904335</v>
       </c>
       <c r="G6" t="n">
-        <v>203231.9103452304</v>
+        <v>203155.3517904336</v>
       </c>
       <c r="H6" t="n">
-        <v>203231.9103452303</v>
+        <v>203155.3517904335</v>
       </c>
       <c r="I6" t="n">
-        <v>192347.5174935766</v>
+        <v>192324.293154194</v>
       </c>
       <c r="J6" t="n">
-        <v>99697.76778142585</v>
+        <v>50081.17930142018</v>
       </c>
       <c r="K6" t="n">
-        <v>210712.2331264161</v>
+        <v>196875.0002191883</v>
       </c>
       <c r="L6" t="n">
-        <v>201764.622037906</v>
+        <v>210689.0087870335</v>
       </c>
       <c r="M6" t="n">
-        <v>23921.24651594846</v>
+        <v>75699.06417402999</v>
       </c>
       <c r="N6" t="n">
-        <v>210712.2331264161</v>
+        <v>210689.0087870335</v>
       </c>
       <c r="O6" t="n">
-        <v>210712.2331264161</v>
+        <v>210689.0087870335</v>
       </c>
       <c r="P6" t="n">
-        <v>210712.2331264162</v>
+        <v>210689.0087870335</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773344</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314098</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773344</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052257</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130548</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.55051528253</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>69.06079487080547</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773344</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052257</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130548</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825298</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773344</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052257</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130548</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.55051528253</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>178.5535117764161</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>363.9353998937216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,19 +27540,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>40.93988592369695</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,10 +27591,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>205.8137837076367</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27667,7 +27667,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>3.32966510043002</v>
       </c>
       <c r="Y5" t="n">
-        <v>316.9527908541095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.9315439843609</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>48.19697732171632</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>44.33888453491835</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27904,22 +27904,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>10.01608981174596</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>135.3636110865063</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>28.400815525404</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -34699,10 +34699,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>479.9987875054318</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773344</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773344</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47.47818213854816</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>379.7979693824695</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>56.52305090189816</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>296.9562613211783</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>270.2148169866495</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314098</v>
+        <v>316.389926674475</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314098</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314098</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314098</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662708</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314095</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314098</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>221.9365865594978</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>309.6062697457111</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -35416,7 +35416,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>480.4689614154649</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -35653,7 +35653,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>480.4689614154649</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>421.9740460140711</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>989.1559309009456</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>592.8367376838255</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>777.2195123312636</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37783,13 +37783,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>92.22506899525706</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>376.7818457160665</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
